--- a/data/outputs/OR_altmetric/44.xlsx
+++ b/data/outputs/OR_altmetric/44.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE127"/>
+  <dimension ref="A1:CF127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2288,6 +2308,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2537,6 +2560,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3047,6 +3076,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3288,6 +3320,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3545,6 +3580,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3794,6 +3832,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4053,6 +4094,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4306,6 +4350,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4552,6 +4599,9 @@
       </c>
       <c r="CE16" t="n">
         <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
@@ -4794,6 +4844,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5047,6 +5100,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5304,6 +5360,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5553,6 +5612,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5798,6 +5860,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6051,6 +6116,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6304,6 +6372,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6553,6 +6624,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6810,6 +6884,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7063,6 +7140,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7314,6 +7394,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7557,6 +7640,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7806,6 +7892,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8055,6 +8144,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8306,6 +8398,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8549,6 +8644,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8790,6 +8888,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9039,6 +9140,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9284,6 +9388,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9529,6 +9636,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9774,6 +9884,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10027,6 +10140,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10280,6 +10396,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10535,6 +10654,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10774,6 +10896,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11033,6 +11158,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11282,6 +11410,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11533,6 +11664,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11774,6 +11908,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12019,6 +12156,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12266,6 +12406,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12513,6 +12656,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12754,6 +12900,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13011,6 +13160,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13256,6 +13408,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13501,6 +13656,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13754,6 +13912,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14007,6 +14168,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14252,6 +14416,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14511,6 +14678,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14770,6 +14940,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15015,6 +15188,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15268,6 +15444,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15513,6 +15692,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15763,6 +15945,9 @@
       </c>
       <c r="CE61" t="n">
         <v>0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
@@ -16001,6 +16186,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16246,6 +16434,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16499,6 +16690,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16754,6 +16948,9 @@
         <v>0</v>
       </c>
       <c r="CE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17001,6 +17198,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17246,6 +17446,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17497,6 +17700,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17754,6 +17960,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17999,6 +18208,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18250,6 +18462,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18493,6 +18708,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18730,6 +18948,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18985,6 +19206,9 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19228,6 +19452,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19469,6 +19696,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19718,6 +19948,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19959,6 +20192,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20202,6 +20438,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20441,6 +20680,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20682,6 +20924,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20939,6 +21184,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21188,6 +21436,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21433,6 +21684,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21686,6 +21940,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21943,6 +22200,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22192,6 +22452,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22449,6 +22712,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22706,6 +22972,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22955,6 +23224,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23204,6 +23476,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23453,6 +23728,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23710,6 +23988,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23955,6 +24236,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24206,6 +24490,9 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24449,6 +24736,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24698,6 +24988,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24945,6 +25238,9 @@
         <v>0</v>
       </c>
       <c r="CE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25188,6 +25484,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25433,6 +25732,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25682,6 +25984,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25927,6 +26232,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26180,6 +26488,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26429,6 +26740,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26674,6 +26988,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26924,6 +27241,9 @@
       </c>
       <c r="CE106" t="n">
         <v>1</v>
+      </c>
+      <c r="CF106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -27162,6 +27482,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27415,6 +27738,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27662,6 +27988,9 @@
         <v>0</v>
       </c>
       <c r="CE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27905,6 +28234,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28152,6 +28484,9 @@
         <v>0</v>
       </c>
       <c r="CE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28395,6 +28730,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28644,6 +28982,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28901,6 +29242,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29152,6 +29496,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29383,6 +29730,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29640,6 +29990,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29885,6 +30238,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30138,6 +30494,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30381,6 +30740,9 @@
         <v>0</v>
       </c>
       <c r="CE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30624,6 +30986,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30865,6 +31230,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31112,6 +31480,9 @@
         <v>0</v>
       </c>
       <c r="CE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31351,6 +31722,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31596,6 +31970,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31843,6 +32220,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32082,6 +32462,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
